--- a/generated_docs/WR_90127622_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_90127622_WeekEnding_081725.xlsx
@@ -70,7 +70,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -81,6 +81,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C00000"/>
         <bgColor rgb="00C00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -131,6 +137,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -526,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:49 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -581,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -601,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -666,7 +679,11 @@
           <t>Job #:</t>
         </is>
       </c>
-      <c r="G13" s="6" t="n"/>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>340-1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
@@ -748,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -758,22 +775,3007 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>350.53</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (08/17/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10" t="inlineStr"/>
+      <c r="H22" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B23" s="14" t="inlineStr">
+        <is>
+          <t>CNC-SNB-2</t>
+        </is>
+      </c>
+      <c r="C23" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+        </is>
+      </c>
+      <c r="E23" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15" t="inlineStr"/>
+      <c r="H23" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-3-P</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B25" s="14" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C25" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E25" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15" t="inlineStr"/>
+      <c r="H25" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>DEG-4-SPA</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>DEG,#4,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="10" t="inlineStr"/>
+      <c r="H26" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15" t="inlineStr"/>
+      <c r="H27" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="inlineStr"/>
+      <c r="H28" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C29" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D29" s="14" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E29" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="inlineStr"/>
+      <c r="H29" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="14" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E31" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15" t="inlineStr"/>
+      <c r="H31" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B33" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C33" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E33" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15" t="inlineStr"/>
+      <c r="H33" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B35" s="14" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C35" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E35" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15" t="inlineStr"/>
+      <c r="H35" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B37" s="14" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C37" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E37" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="15" t="inlineStr"/>
+      <c r="H37" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="14" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B39" s="14" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C39" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E39" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="15" t="inlineStr"/>
+      <c r="H39" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B41" s="14" t="inlineStr">
+        <is>
+          <t>CON-4-CHD-1-B</t>
+        </is>
+      </c>
+      <c r="C41" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+        </is>
+      </c>
+      <c r="E41" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F41" s="15" t="n">
+        <v>210</v>
+      </c>
+      <c r="G41" s="15" t="inlineStr"/>
+      <c r="H41" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="14" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B43" s="14" t="inlineStr">
+        <is>
+          <t>DEG-4-SPA</t>
+        </is>
+      </c>
+      <c r="C43" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D43" s="14" t="inlineStr">
+        <is>
+          <t>DEG,#4,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E43" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="15" t="inlineStr"/>
+      <c r="H43" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="14" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B45" s="14" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP</t>
+        </is>
+      </c>
+      <c r="C45" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D45" s="14" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E45" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15" t="inlineStr"/>
+      <c r="H45" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="14" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B47" s="14" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C47" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D47" s="14" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E47" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F47" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="G47" s="15" t="inlineStr"/>
+      <c r="H47" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="14" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B49" s="14" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C49" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D49" s="14" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E49" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="15" t="inlineStr"/>
+      <c r="H49" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="14" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B51" s="14" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C51" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D51" s="14" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E51" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" s="15" t="inlineStr"/>
+      <c r="H51" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>POL-35-5</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>Pole,35ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="14" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B53" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C53" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D53" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E53" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="15" t="inlineStr"/>
+      <c r="H53" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="14" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B55" s="14" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C55" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D55" s="14" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E55" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="15" t="inlineStr"/>
+      <c r="H55" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="14" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B57" s="14" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C57" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="14" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E57" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="15" t="inlineStr"/>
+      <c r="H57" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="14" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B59" s="14" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-3-P</t>
+        </is>
+      </c>
+      <c r="C59" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="14" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+        </is>
+      </c>
+      <c r="E59" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F59" s="15" t="n">
+        <v>155</v>
+      </c>
+      <c r="G59" s="15" t="inlineStr"/>
+      <c r="H59" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="inlineStr">
+        <is>
+          <t>DEG-2-SNA</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>DEG,#2,Secondary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="14" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B61" s="14" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C61" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="14" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E61" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15" t="inlineStr"/>
+      <c r="H61" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="14" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B63" s="14" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C63" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="14" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E63" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="15" t="inlineStr"/>
+      <c r="H63" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B64" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E64" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="14" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B65" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C65" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E65" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="15" t="inlineStr"/>
+      <c r="H65" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E66" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10" t="inlineStr"/>
+      <c r="H66" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="14" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B67" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C67" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E67" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" s="15" t="inlineStr"/>
+      <c r="H67" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="inlineStr">
+        <is>
+          <t>SAA-SP-336</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
+        </is>
+      </c>
+      <c r="E68" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="10" t="inlineStr"/>
+      <c r="H68" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="14" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B69" s="14" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C69" s="14" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D69" s="14" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E69" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="15" t="inlineStr"/>
+      <c r="H69" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E70" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="10" t="inlineStr"/>
+      <c r="H70" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="14" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B71" s="14" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C71" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="14" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E71" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="G71" s="15" t="inlineStr"/>
+      <c r="H71" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10" t="inlineStr"/>
+      <c r="H72" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="14" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B73" s="14" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C73" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D73" s="14" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E73" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="15" t="inlineStr"/>
+      <c r="H73" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E74" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="10" t="inlineStr"/>
+      <c r="H74" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="14" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B75" s="14" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C75" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="14" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E75" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="15" t="inlineStr"/>
+      <c r="H75" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>CON-4-CHD-1-B</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>411</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="14" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B77" s="14" t="inlineStr">
+        <is>
+          <t>DEG-2-SNA</t>
+        </is>
+      </c>
+      <c r="C77" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D77" s="14" t="inlineStr">
+        <is>
+          <t>DEG,#2,Secondary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E77" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="15" t="inlineStr"/>
+      <c r="H77" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D78" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E78" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="10" t="inlineStr"/>
+      <c r="H78" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="14" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B79" s="14" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C79" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D79" s="14" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E79" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="15" t="inlineStr"/>
+      <c r="H79" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E80" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="10" t="inlineStr"/>
+      <c r="H80" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="14" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B81" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C81" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D81" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E81" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="15" t="inlineStr"/>
+      <c r="H81" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C82" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D82" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E82" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="10" t="inlineStr"/>
+      <c r="H82" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="14" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B83" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C83" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D83" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E83" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" s="15" t="inlineStr"/>
+      <c r="H83" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C84" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D84" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E84" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G84" s="10" t="inlineStr"/>
+      <c r="H84" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="14" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B85" s="14" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C85" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D85" s="14" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E85" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F85" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="15" t="inlineStr"/>
+      <c r="H85" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B86" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C86" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D86" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E86" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10" t="inlineStr"/>
+      <c r="H86" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="14" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B87" s="14" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-3-P</t>
+        </is>
+      </c>
+      <c r="C87" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D87" s="14" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+        </is>
+      </c>
+      <c r="E87" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F87" s="15" t="n">
+        <v>94</v>
+      </c>
+      <c r="G87" s="15" t="inlineStr"/>
+      <c r="H87" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>DEG-2-SNA</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D88" s="9" t="inlineStr">
+        <is>
+          <t>DEG,#2,Secondary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E88" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="14" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B89" s="14" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C89" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D89" s="14" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E89" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="15" t="inlineStr"/>
+      <c r="H89" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E90" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10" t="inlineStr"/>
+      <c r="H90" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="14" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B91" s="14" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C91" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="14" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E91" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="15" t="inlineStr"/>
+      <c r="H91" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="14" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B93" s="14" t="inlineStr">
+        <is>
+          <t>SAA-SP-336</t>
+        </is>
+      </c>
+      <c r="C93" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="14" t="inlineStr">
+        <is>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
+        </is>
+      </c>
+      <c r="E93" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="15" t="inlineStr"/>
+      <c r="H93" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="14" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B95" s="14" t="inlineStr">
+        <is>
+          <t>SVD-3-CV</t>
+        </is>
+      </c>
+      <c r="C95" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="14" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E95" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="15" t="inlineStr"/>
+      <c r="H95" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="14" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B97" s="14" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C97" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="14" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E97" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="G97" s="15" t="inlineStr"/>
+      <c r="H97" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>CON-4-CHD-1-B</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>387</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="14" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B99" s="14" t="inlineStr">
+        <is>
+          <t>DEG-2-SNA</t>
+        </is>
+      </c>
+      <c r="C99" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D99" s="14" t="inlineStr">
+        <is>
+          <t>DEG,#2,Secondary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E99" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="15" t="inlineStr"/>
+      <c r="H99" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="14" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B101" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C101" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D101" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E101" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="15" t="inlineStr"/>
+      <c r="H101" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-3</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 3</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="14" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B103" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C103" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D103" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E103" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" s="15" t="inlineStr"/>
+      <c r="H103" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="14" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B105" s="14" t="inlineStr">
+        <is>
+          <t>SVD-3-CV</t>
+        </is>
+      </c>
+      <c r="C105" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D105" s="14" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E105" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="15" t="inlineStr"/>
+      <c r="H105" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="14" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B107" s="14" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-3-P</t>
+        </is>
+      </c>
+      <c r="C107" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="14" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+        </is>
+      </c>
+      <c r="E107" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F107" s="15" t="n">
+        <v>81</v>
+      </c>
+      <c r="G107" s="15" t="inlineStr"/>
+      <c r="H107" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="12" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H108" s="13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A108:G108"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_90127622_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_90127622_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I108"/>
+  <dimension ref="A2:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:02 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>10837.04</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P112</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="17">
@@ -775,7 +771,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="20">
@@ -858,7 +854,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +888,7 @@
       </c>
       <c r="G23" s="15" t="inlineStr"/>
       <c r="H23" s="16" t="n">
-        <v>0</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>60.48</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="15" t="inlineStr"/>
       <c r="H25" s="16" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1001,7 @@
       </c>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>GYF-38-D-42P-EP</t>
         </is>
       </c>
       <c r="C27" s="14" t="inlineStr">
@@ -1015,7 +1011,7 @@
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="15" t="inlineStr"/>
       <c r="H27" s="16" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1039,7 +1035,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1049,7 +1045,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1069,7 @@
       </c>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C29" s="14" t="inlineStr">
@@ -1083,7 +1079,7 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="15" t="inlineStr"/>
       <c r="H29" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1103,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1117,20 +1113,20 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1137,7 @@
       </c>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C31" s="14" t="inlineStr">
@@ -1151,7 +1147,7 @@
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E31" s="14" t="inlineStr">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="G31" s="15" t="inlineStr"/>
       <c r="H31" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="32">
@@ -1175,7 +1171,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1185,7 +1181,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="33">
@@ -1209,7 +1205,7 @@
       </c>
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C33" s="14" t="inlineStr">
@@ -1219,7 +1215,7 @@
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
@@ -1232,7 +1228,7 @@
       </c>
       <c r="G33" s="15" t="inlineStr"/>
       <c r="H33" s="16" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="34">
@@ -1243,17 +1239,17 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1262,11 +1258,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="35">
@@ -1277,7 +1273,7 @@
       </c>
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C35" s="14" t="inlineStr">
@@ -1287,7 +1283,7 @@
       </c>
       <c r="D35" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E35" s="14" t="inlineStr">
@@ -1300,28 +1296,28 @@
       </c>
       <c r="G35" s="15" t="inlineStr"/>
       <c r="H35" s="16" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1334,62 +1330,62 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C37" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D37" s="14" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F37" s="15" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="G37" s="15" t="inlineStr"/>
       <c r="H37" s="16" t="n">
-        <v>0</v>
+        <v>195.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1402,28 +1398,28 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="14" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C39" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D39" s="14" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E39" s="14" t="inlineStr">
@@ -1432,11 +1428,11 @@
         </is>
       </c>
       <c r="F39" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="15" t="inlineStr"/>
       <c r="H39" s="16" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="40">
@@ -1447,7 +1443,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>GYF-38-D-42P-EP</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1457,7 +1453,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1470,7 +1466,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="41">
@@ -1481,7 +1477,7 @@
       </c>
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C41" s="14" t="inlineStr">
@@ -1491,20 +1487,20 @@
       </c>
       <c r="D41" s="14" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F41" s="15" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G41" s="15" t="inlineStr"/>
       <c r="H41" s="16" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="42">
@@ -1515,7 +1511,7 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1525,7 +1521,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1538,7 +1534,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1545,7 @@
       </c>
       <c r="B43" s="14" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C43" s="14" t="inlineStr">
@@ -1559,7 +1555,7 @@
       </c>
       <c r="D43" s="14" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E43" s="14" t="inlineStr">
@@ -1568,11 +1564,11 @@
         </is>
       </c>
       <c r="F43" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="15" t="inlineStr"/>
       <c r="H43" s="16" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="44">
@@ -1583,7 +1579,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1593,7 +1589,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1606,7 +1602,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="45">
@@ -1617,7 +1613,7 @@
       </c>
       <c r="B45" s="14" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C45" s="14" t="inlineStr">
@@ -1627,7 +1623,7 @@
       </c>
       <c r="D45" s="14" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E45" s="14" t="inlineStr">
@@ -1640,7 +1636,7 @@
       </c>
       <c r="G45" s="15" t="inlineStr"/>
       <c r="H45" s="16" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="46">
@@ -1651,7 +1647,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1661,7 +1657,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1670,11 +1666,11 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1681,7 @@
       </c>
       <c r="B47" s="14" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C47" s="14" t="inlineStr">
@@ -1695,41 +1691,41 @@
       </c>
       <c r="D47" s="14" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E47" s="14" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F47" s="15" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G47" s="15" t="inlineStr"/>
       <c r="H47" s="16" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1742,28 +1738,28 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B49" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C49" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
@@ -1776,62 +1772,62 @@
       </c>
       <c r="G49" s="15" t="inlineStr"/>
       <c r="H49" s="16" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="14" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B51" s="14" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C51" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="14" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E51" s="14" t="inlineStr">
@@ -1840,32 +1836,32 @@
         </is>
       </c>
       <c r="F51" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" s="15" t="inlineStr"/>
       <c r="H51" s="16" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1878,28 +1874,28 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="14" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B53" s="14" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C53" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D53" s="14" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -1912,28 +1908,28 @@
       </c>
       <c r="G53" s="15" t="inlineStr"/>
       <c r="H53" s="16" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -1942,32 +1938,32 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B55" s="14" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C55" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D55" s="14" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E55" s="14" t="inlineStr">
@@ -1980,7 +1976,7 @@
       </c>
       <c r="G55" s="15" t="inlineStr"/>
       <c r="H55" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="56">
@@ -1991,7 +1987,7 @@
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2001,7 +1997,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2014,7 +2010,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="57">
@@ -2025,7 +2021,7 @@
       </c>
       <c r="B57" s="14" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C57" s="14" t="inlineStr">
@@ -2035,7 +2031,7 @@
       </c>
       <c r="D57" s="14" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E57" s="14" t="inlineStr">
@@ -2044,11 +2040,11 @@
         </is>
       </c>
       <c r="F57" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="15" t="inlineStr"/>
       <c r="H57" s="16" t="n">
-        <v>0</v>
+        <v>165.54</v>
       </c>
     </row>
     <row r="58">
@@ -2059,7 +2055,7 @@
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2069,7 +2065,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2082,7 +2078,7 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="59">
@@ -2093,30 +2089,30 @@
       </c>
       <c r="B59" s="14" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C59" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D59" s="14" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E59" s="14" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F59" s="15" t="n">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="G59" s="15" t="inlineStr"/>
       <c r="H59" s="16" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2123,7 @@
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2137,7 +2133,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2150,7 +2146,7 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="61">
@@ -2161,7 +2157,7 @@
       </c>
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C61" s="14" t="inlineStr">
@@ -2171,7 +2167,7 @@
       </c>
       <c r="D61" s="14" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -2184,28 +2180,28 @@
       </c>
       <c r="G61" s="15" t="inlineStr"/>
       <c r="H61" s="16" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2218,28 +2214,28 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C63" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D63" s="14" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E63" s="14" t="inlineStr">
@@ -2248,66 +2244,66 @@
         </is>
       </c>
       <c r="F63" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="15" t="inlineStr"/>
       <c r="H63" s="16" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>411</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>382.23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C65" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="14" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -2320,28 +2316,28 @@
       </c>
       <c r="G65" s="15" t="inlineStr"/>
       <c r="H65" s="16" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2354,28 +2350,28 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C67" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="14" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E67" s="14" t="inlineStr">
@@ -2384,32 +2380,32 @@
         </is>
       </c>
       <c r="F67" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67" s="15" t="inlineStr"/>
       <c r="H67" s="16" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2422,28 +2418,28 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C69" s="14" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="14" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -2456,28 +2452,28 @@
       </c>
       <c r="G69" s="15" t="inlineStr"/>
       <c r="H69" s="16" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2486,32 +2482,32 @@
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="14" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C71" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="14" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -2520,32 +2516,32 @@
         </is>
       </c>
       <c r="F71" s="15" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G71" s="15" t="inlineStr"/>
       <c r="H71" s="16" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2558,62 +2554,62 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="14" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C73" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D73" s="14" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E73" s="14" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F73" s="15" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="G73" s="15" t="inlineStr"/>
       <c r="H73" s="16" t="n">
-        <v>0</v>
+        <v>67.68000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2626,28 +2622,28 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C75" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D75" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E75" s="14" t="inlineStr">
@@ -2660,62 +2656,62 @@
       </c>
       <c r="G75" s="15" t="inlineStr"/>
       <c r="H75" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>411</v>
+        <v>1</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="14" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C77" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D77" s="14" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E77" s="14" t="inlineStr">
@@ -2728,28 +2724,28 @@
       </c>
       <c r="G77" s="15" t="inlineStr"/>
       <c r="H77" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2758,32 +2754,32 @@
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="14" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C79" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D79" s="14" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E79" s="14" t="inlineStr">
@@ -2796,28 +2792,28 @@
       </c>
       <c r="G79" s="15" t="inlineStr"/>
       <c r="H79" s="16" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2826,32 +2822,32 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="14" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C81" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="14" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E81" s="14" t="inlineStr">
@@ -2864,28 +2860,28 @@
       </c>
       <c r="G81" s="15" t="inlineStr"/>
       <c r="H81" s="16" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2894,22 +2890,22 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="14" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C83" s="14" t="inlineStr">
@@ -2919,31 +2915,31 @@
       </c>
       <c r="D83" s="14" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E83" s="14" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F83" s="15" t="n">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="G83" s="15" t="inlineStr"/>
       <c r="H83" s="16" t="n">
-        <v>0</v>
+        <v>359.91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2953,7 +2949,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2962,22 +2958,22 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="14" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C85" s="14" t="inlineStr">
@@ -2987,7 +2983,7 @@
       </c>
       <c r="D85" s="14" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E85" s="14" t="inlineStr">
@@ -3000,18 +2996,18 @@
       </c>
       <c r="G85" s="15" t="inlineStr"/>
       <c r="H85" s="16" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3021,7 +3017,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3034,62 +3030,62 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="14" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B87" s="14" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>POL-40-3</t>
         </is>
       </c>
       <c r="C87" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D87" s="14" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>Pole,40ft,Class 3</t>
         </is>
       </c>
       <c r="E87" s="14" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F87" s="15" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="G87" s="15" t="inlineStr"/>
       <c r="H87" s="16" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3098,32 +3094,32 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="14" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B89" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C89" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D89" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E89" s="14" t="inlineStr">
@@ -3136,28 +3132,28 @@
       </c>
       <c r="G89" s="15" t="inlineStr"/>
       <c r="H89" s="16" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3166,22 +3162,22 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="14" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B91" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C91" s="14" t="inlineStr">
@@ -3191,574 +3187,30 @@
       </c>
       <c r="D91" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E91" s="14" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F91" s="15" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="G91" s="15" t="inlineStr"/>
       <c r="H91" s="16" t="n">
-        <v>0</v>
+        <v>58.32</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C92" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D92" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E92" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F92" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" s="10" t="inlineStr"/>
-      <c r="H92" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="14" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B93" s="14" t="inlineStr">
-        <is>
-          <t>SAA-SP-336</t>
-        </is>
-      </c>
-      <c r="C93" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D93" s="14" t="inlineStr">
-        <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
-        </is>
-      </c>
-      <c r="E93" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="15" t="inlineStr"/>
-      <c r="H93" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-AAA-RS</t>
-        </is>
-      </c>
-      <c r="C94" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D94" s="9" t="inlineStr">
-        <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
-        </is>
-      </c>
-      <c r="E94" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" s="10" t="inlineStr"/>
-      <c r="H94" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="14" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B95" s="14" t="inlineStr">
-        <is>
-          <t>SVD-3-CV</t>
-        </is>
-      </c>
-      <c r="C95" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D95" s="14" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E95" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="15" t="inlineStr"/>
-      <c r="H95" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B96" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C96" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D96" s="9" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E96" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F96" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G96" s="10" t="inlineStr"/>
-      <c r="H96" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="14" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B97" s="14" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C97" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D97" s="14" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E97" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="15" t="n">
-        <v>18</v>
-      </c>
-      <c r="G97" s="15" t="inlineStr"/>
-      <c r="H97" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B98" s="9" t="inlineStr">
-        <is>
-          <t>CON-4-CHD-1-B</t>
-        </is>
-      </c>
-      <c r="C98" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D98" s="9" t="inlineStr">
-        <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
-        </is>
-      </c>
-      <c r="E98" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F98" s="10" t="n">
-        <v>387</v>
-      </c>
-      <c r="G98" s="10" t="inlineStr"/>
-      <c r="H98" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="14" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B99" s="14" t="inlineStr">
-        <is>
-          <t>DEG-2-SNA</t>
-        </is>
-      </c>
-      <c r="C99" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D99" s="14" t="inlineStr">
-        <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
-        </is>
-      </c>
-      <c r="E99" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="15" t="inlineStr"/>
-      <c r="H99" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C100" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D100" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E100" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" s="10" t="inlineStr"/>
-      <c r="H100" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="14" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B101" s="14" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C101" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D101" s="14" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E101" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="15" t="inlineStr"/>
-      <c r="H101" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-3</t>
-        </is>
-      </c>
-      <c r="C102" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D102" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 3</t>
-        </is>
-      </c>
-      <c r="E102" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="10" t="inlineStr"/>
-      <c r="H102" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="14" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B103" s="14" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C103" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D103" s="14" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E103" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" s="15" t="inlineStr"/>
-      <c r="H103" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B104" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C104" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D104" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E104" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G104" s="10" t="inlineStr"/>
-      <c r="H104" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="14" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B105" s="14" t="inlineStr">
-        <is>
-          <t>SVD-3-CV</t>
-        </is>
-      </c>
-      <c r="C105" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D105" s="14" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E105" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="15" t="inlineStr"/>
-      <c r="H105" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C106" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D106" s="9" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E106" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F106" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G106" s="10" t="inlineStr"/>
-      <c r="H106" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="14" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B107" s="14" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-3-P</t>
-        </is>
-      </c>
-      <c r="C107" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D107" s="14" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
-        </is>
-      </c>
-      <c r="E107" s="14" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F107" s="15" t="n">
-        <v>81</v>
-      </c>
-      <c r="G107" s="15" t="inlineStr"/>
-      <c r="H107" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="12" t="inlineStr">
+      <c r="A92" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H108" s="13" t="n">
-        <v>0</v>
+      <c r="H92" s="13" t="n">
+        <v>10486.51</v>
       </c>
     </row>
   </sheetData>
@@ -3772,10 +3224,10 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A92:G92"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A108:G108"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
